--- a/biology/Botanique/Otatea/Otatea.xlsx
+++ b/biology/Botanique/Otatea/Otatea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otatea  (du nahuatl otatl « bambou », « roseau ferme ») est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire du Mexique, d'Amérique centrale et de Colombie, qui regroupe une dizaine d'espèces acceptées.
-Ce sont des bambous de taille moyenne, pouvant atteindre 3 m de haut, très utilisés pour la construction de murs et dans l'artisanat. Ces bambous sont aussi cultivés à des fins ornementales[2].
+Ce sont des bambous de taille moyenne, pouvant atteindre 3 m de haut, très utilisés pour la construction de murs et dans l'artisanat. Ces bambous sont aussi cultivés à des fins ornementales.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avril 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avril 2017) :
 Otatea acuminata (Munro) C.E.Calderón ex Soderstr. (1980)
 Otatea carrilloi Ruiz-Sanchez, Sosa &amp; Mejía-Saulés (2011)
 Otatea fimbriata Soderstr. (1983)
